--- a/trunk/docs/Mixer table.xlsx
+++ b/trunk/docs/Mixer table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="43">
   <si>
     <t>Mixer table</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Flying Wing</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>V-Tail</t>
   </si>
 </sst>
 </file>
@@ -162,18 +168,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -245,7 +245,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -255,6 +254,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -556,11 +560,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE24"/>
+  <dimension ref="A1:BE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -605,78 +607,78 @@
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="11" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="11" t="s">
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="11" t="s">
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="11" t="s">
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="11" t="s">
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="13"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="12"/>
     </row>
     <row r="4" spans="1:57" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1122,8 +1124,8 @@
       <c r="S7">
         <v>100</v>
       </c>
-      <c r="T7" s="10">
-        <v>0</v>
+      <c r="T7" s="13">
+        <v>50</v>
       </c>
       <c r="U7" s="8" t="s">
         <v>18</v>
@@ -1143,8 +1145,8 @@
       <c r="Z7">
         <v>100</v>
       </c>
-      <c r="AA7" s="10">
-        <v>0</v>
+      <c r="AA7" s="13">
+        <v>50</v>
       </c>
       <c r="AB7" s="8" t="s">
         <v>18</v>
@@ -3415,8 +3417,8 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" s="10">
-        <v>0</v>
+      <c r="M24" s="13">
+        <v>50</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>18</v>
@@ -3436,8 +3438,8 @@
       <c r="S24">
         <v>0</v>
       </c>
-      <c r="T24" s="10">
-        <v>0</v>
+      <c r="T24" s="13">
+        <v>50</v>
       </c>
       <c r="U24" s="8" t="s">
         <v>18</v>
@@ -3455,6 +3457,196 @@
       <c r="AX24" s="9"/>
       <c r="BD24" s="8"/>
       <c r="BE24" s="9"/>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>-71</v>
+      </c>
+      <c r="D25">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>71</v>
+      </c>
+      <c r="K25">
+        <v>71</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="15">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>0</v>
+      </c>
+      <c r="R25" s="15">
+        <v>-100</v>
+      </c>
+      <c r="S25" s="15">
+        <v>100</v>
+      </c>
+      <c r="T25" s="15">
+        <v>0</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="W25" s="15">
+        <v>100</v>
+      </c>
+      <c r="X25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="15">
+        <v>-100</v>
+      </c>
+      <c r="Z25" s="15">
+        <v>-100</v>
+      </c>
+      <c r="AA25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="9"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="9"/>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>-71</v>
+      </c>
+      <c r="D26">
+        <v>71</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <v>71</v>
+      </c>
+      <c r="K26">
+        <v>71</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="15">
+        <v>120</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>0</v>
+      </c>
+      <c r="R26" s="15">
+        <v>-90</v>
+      </c>
+      <c r="S26" s="15">
+        <v>100</v>
+      </c>
+      <c r="T26" s="15">
+        <v>0</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="W26" s="15">
+        <v>120</v>
+      </c>
+      <c r="X26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="15">
+        <v>-90</v>
+      </c>
+      <c r="Z26" s="15">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="9"/>
+      <c r="BD26" s="8"/>
+      <c r="BE26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
